--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/城镇居民消费.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/城镇居民消费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,467 +528,278 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9894088.535214109</v>
+        <v>32079789.3827345</v>
       </c>
       <c r="C2" t="n">
-        <v>19319945.3515532</v>
+        <v>185270700.956629</v>
       </c>
       <c r="D2" t="n">
-        <v>45369909.317996</v>
+        <v>64277434.6334591</v>
       </c>
       <c r="E2" t="n">
-        <v>9148717.65994175</v>
+        <v>25606020.49216</v>
       </c>
       <c r="F2" t="n">
-        <v>197681306</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>1121392092.14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12483648.1442386</v>
+      </c>
       <c r="H2" t="n">
-        <v>15008689.6372878</v>
+        <v>146147924.46453</v>
       </c>
       <c r="I2" t="n">
-        <v>23167655.8645971</v>
+        <v>126138434.75082</v>
       </c>
       <c r="J2" t="n">
-        <v>20269640.9537372</v>
+        <v>88816596.12126461</v>
       </c>
       <c r="K2" t="n">
-        <v>2864859.96548926</v>
+        <v>12467080.7340181</v>
       </c>
       <c r="L2" t="n">
-        <v>4918183.96117733</v>
+        <v>38937051.5980607</v>
       </c>
       <c r="M2" t="n">
-        <v>21502204.4995485</v>
+        <v>70165542.4123504</v>
       </c>
       <c r="N2" t="n">
-        <v>9963688.58726272</v>
+        <v>60781475.7606502</v>
       </c>
       <c r="O2" t="n">
-        <v>418295.082084777</v>
+        <v>526877.713871941</v>
       </c>
       <c r="P2" t="n">
-        <v>2044899.97477225</v>
+        <v>4077387.94360967</v>
       </c>
       <c r="Q2" t="n">
-        <v>9047170.508194059</v>
+        <v>49378500</v>
       </c>
       <c r="R2" t="n">
-        <v>5242760.28969773</v>
+        <v>2801553.32537942</v>
       </c>
       <c r="S2" t="n">
-        <v>47853460.2537193</v>
+        <v>201436073.708369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10806275.4815368</v>
+        <v>25685144.6537155</v>
       </c>
       <c r="C3" t="n">
-        <v>64890182.3526423</v>
+        <v>233382319.159567</v>
       </c>
       <c r="D3" t="n">
-        <v>55311145.4071078</v>
+        <v>125492145.748467</v>
       </c>
       <c r="E3" t="n">
-        <v>9496690.66138779</v>
+        <v>48761881.5827383</v>
       </c>
       <c r="F3" t="n">
-        <v>362996000</v>
+        <v>1533139381.08</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>32682272.9594486</v>
+        <v>170498730.088357</v>
       </c>
       <c r="I3" t="n">
-        <v>48540636.1560828</v>
+        <v>196291989.230788</v>
       </c>
       <c r="J3" t="n">
-        <v>23357855.9690689</v>
+        <v>120053730.502592</v>
       </c>
       <c r="K3" t="n">
-        <v>2504000</v>
+        <v>34212769.0027816</v>
       </c>
       <c r="L3" t="n">
-        <v>10451072</v>
+        <v>28723866.8626043</v>
       </c>
       <c r="M3" t="n">
-        <v>25810962.6001527</v>
+        <v>88556431.5489113</v>
       </c>
       <c r="N3" t="n">
-        <v>13024018.5670211</v>
+        <v>99446601.3879822</v>
       </c>
       <c r="O3" t="n">
-        <v>2072983.74083717</v>
+        <v>638967.411510042</v>
       </c>
       <c r="P3" t="n">
-        <v>3173868.90062836</v>
+        <v>4031789.9906399</v>
       </c>
       <c r="Q3" t="n">
-        <v>9431638.556114741</v>
+        <v>81652800.23798791</v>
       </c>
       <c r="R3" t="n">
-        <v>4602802.39664394</v>
+        <v>3567737.39628845</v>
       </c>
       <c r="S3" t="n">
-        <v>46839594.2252413</v>
+        <v>272142476.278812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14856509.1651573</v>
+        <v>64396273.225584</v>
       </c>
       <c r="C4" t="n">
-        <v>85042759.8215068</v>
+        <v>340164626.078618</v>
       </c>
       <c r="D4" t="n">
-        <v>54690428.8980223</v>
+        <v>117669296.211934</v>
       </c>
       <c r="E4" t="n">
-        <v>14630888.6281217</v>
+        <v>66196368.9648313</v>
       </c>
       <c r="F4" t="n">
-        <v>519893100.44</v>
+        <v>2068371924.64233</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>40555846.0318792</v>
+        <v>264276466.794187</v>
       </c>
       <c r="I4" t="n">
-        <v>62813397.0369806</v>
+        <v>230378818.66798</v>
       </c>
       <c r="J4" t="n">
-        <v>39392016.4421816</v>
+        <v>212715259.531574</v>
       </c>
       <c r="K4" t="n">
-        <v>4776449.74267321</v>
+        <v>42781074.9051049</v>
       </c>
       <c r="L4" t="n">
-        <v>15696963.4771212</v>
+        <v>33547895.8583058</v>
       </c>
       <c r="M4" t="n">
-        <v>37780794.7794728</v>
+        <v>124273513.624256</v>
       </c>
       <c r="N4" t="n">
-        <v>39897851.7990468</v>
+        <v>116319434.85988</v>
       </c>
       <c r="O4" t="n">
-        <v>1767624.97154294</v>
+        <v>949585.30402741</v>
       </c>
       <c r="P4" t="n">
-        <v>3507981.52520979</v>
+        <v>2716841.4077566</v>
       </c>
       <c r="Q4" t="n">
-        <v>28859700</v>
+        <v>140316197.930713</v>
       </c>
       <c r="R4" t="n">
-        <v>6356479.74656459</v>
+        <v>4993494.66557709</v>
       </c>
       <c r="S4" t="n">
-        <v>69267408.37951121</v>
+        <v>306676776.612002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19629234.7853187</v>
+        <v>2774142.66269045</v>
       </c>
       <c r="C5" t="n">
-        <v>113726707.646429</v>
+        <v>618241477.694374</v>
       </c>
       <c r="D5" t="n">
-        <v>59967034.9532283</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17375076.2561041</v>
-      </c>
+        <v>175580822.87492</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>722353743.86</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9318748.277249999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>64277656.2381154</v>
-      </c>
-      <c r="I5" t="n">
-        <v>101381333.375179</v>
-      </c>
+        <v>2556879016.98466</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>51262854.9579009</v>
+        <v>193179023.600564</v>
       </c>
       <c r="K5" t="n">
-        <v>9309325.00003637</v>
+        <v>97008090.9519529</v>
       </c>
       <c r="L5" t="n">
-        <v>21159879.23998</v>
+        <v>53907149.3398002</v>
       </c>
       <c r="M5" t="n">
-        <v>49122299.5536787</v>
-      </c>
-      <c r="N5" t="n">
-        <v>42298655.8600909</v>
-      </c>
+        <v>121077442.577658</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>604441.545231694</v>
+        <v>541848.43509821</v>
       </c>
       <c r="P5" t="n">
-        <v>3404223.04005101</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>34359558.0720084</v>
-      </c>
+        <v>4730120.35497279</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>2294313.27653298</v>
+        <v>3772988.7804277</v>
       </c>
       <c r="S5" t="n">
-        <v>122862401.779488</v>
+        <v>459772044.864463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32079789.3827345</v>
+        <v>3366560.16355687</v>
       </c>
       <c r="C6" t="n">
-        <v>185270700.956629</v>
+        <v>685773033.710874</v>
       </c>
       <c r="D6" t="n">
-        <v>64277434.6334591</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25606020.49216</v>
-      </c>
+        <v>221055004.423882</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1121392092.14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12483648.1442386</v>
-      </c>
-      <c r="H6" t="n">
-        <v>146147924.46453</v>
-      </c>
-      <c r="I6" t="n">
-        <v>126138434.75082</v>
-      </c>
+        <v>3023440277.96893</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>88816596.12126461</v>
+        <v>221880841.059148</v>
       </c>
       <c r="K6" t="n">
-        <v>12467080.7340181</v>
+        <v>100482984.284874</v>
       </c>
       <c r="L6" t="n">
-        <v>38937051.5980607</v>
+        <v>99984358.6309073</v>
       </c>
       <c r="M6" t="n">
-        <v>70165542.4123504</v>
-      </c>
-      <c r="N6" t="n">
-        <v>60781475.7606502</v>
-      </c>
+        <v>108193778.357945</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>526877.713871941</v>
+        <v>468986.096341701</v>
       </c>
       <c r="P6" t="n">
-        <v>4077387.94360967</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>49378500</v>
-      </c>
+        <v>4215024.12649486</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>2801553.32537942</v>
+        <v>3925831.46539935</v>
       </c>
       <c r="S6" t="n">
-        <v>201436073.708369</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25685144.6537155</v>
-      </c>
-      <c r="C7" t="n">
-        <v>233382319.159567</v>
-      </c>
-      <c r="D7" t="n">
-        <v>125492145.748467</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48761881.5827383</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1533139381.08</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>170498730.088357</v>
-      </c>
-      <c r="I7" t="n">
-        <v>196291989.230788</v>
-      </c>
-      <c r="J7" t="n">
-        <v>120053730.502592</v>
-      </c>
-      <c r="K7" t="n">
-        <v>34212769.0027816</v>
-      </c>
-      <c r="L7" t="n">
-        <v>28723866.8626043</v>
-      </c>
-      <c r="M7" t="n">
-        <v>88556431.5489113</v>
-      </c>
-      <c r="N7" t="n">
-        <v>99446601.3879822</v>
-      </c>
-      <c r="O7" t="n">
-        <v>638967.411510042</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4031789.9906399</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>81652800.23798791</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3567737.39628845</v>
-      </c>
-      <c r="S7" t="n">
-        <v>272142476.278812</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>64396273.225584</v>
-      </c>
-      <c r="C8" t="n">
-        <v>340164626.078618</v>
-      </c>
-      <c r="D8" t="n">
-        <v>117669296.211934</v>
-      </c>
-      <c r="E8" t="n">
-        <v>66196368.9648313</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2068371924.64233</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>264276466.794187</v>
-      </c>
-      <c r="I8" t="n">
-        <v>230378818.66798</v>
-      </c>
-      <c r="J8" t="n">
-        <v>212715259.531574</v>
-      </c>
-      <c r="K8" t="n">
-        <v>42781074.9051049</v>
-      </c>
-      <c r="L8" t="n">
-        <v>33547895.8583058</v>
-      </c>
-      <c r="M8" t="n">
-        <v>124273513.624256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>116319434.85988</v>
-      </c>
-      <c r="O8" t="n">
-        <v>949585.30402741</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2716841.4077566</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>140316197.930713</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4993494.66557709</v>
-      </c>
-      <c r="S8" t="n">
-        <v>306676776.612002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2774142.66269045</v>
-      </c>
-      <c r="C9" t="n">
-        <v>618241477.694374</v>
-      </c>
-      <c r="D9" t="n">
-        <v>175580822.87492</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2556879016.98466</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>193179023.600564</v>
-      </c>
-      <c r="K9" t="n">
-        <v>97008090.9519529</v>
-      </c>
-      <c r="L9" t="n">
-        <v>53907149.3398002</v>
-      </c>
-      <c r="M9" t="n">
-        <v>121077442.577658</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>541848.43509821</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4730120.35497279</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>3772988.7804277</v>
-      </c>
-      <c r="S9" t="n">
-        <v>459772044.864463</v>
+        <v>452326731.017457</v>
       </c>
     </row>
   </sheetData>
